--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Moulin_du_Coudray_de_La_Blanchère/Pierre_Moulin_du_Coudray_de_La_Blanchère.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Moulin_du_Coudray_de_La_Blanchère/Pierre_Moulin_du_Coudray_de_La_Blanchère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Moulin_du_Coudray_de_La_Blanch%C3%A8re</t>
+          <t>Pierre_Moulin_du_Coudray_de_La_Blanchère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre René Marie Henri Moulin du Coudray de La Blanchère (1821, La Flèche - 1880, Le Havre) est un naturaliste et photographe français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Moulin_du_Coudray_de_La_Blanch%C3%A8re</t>
+          <t>Pierre_Moulin_du_Coudray_de_La_Blanchère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'École nationale des eaux et forêts et devient garde forestier. En 1848, il fait des études de chimie à Nantes et se consacre dès lors aux poissons et à la pêche. En 1855, il s’installe à Paris et s’initie à la photographie auprès de Gustave Le Gray (1820-1884). Il fut un des premiers savants français à appliquer la photographie à ses recherches d'histoire naturelle. Il réalise des ouvrages d’histoire naturelle (notamment sur les poissons) illustrés par ses photographies mais aussi des ouvrages consacrés à la photo.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Moulin_du_Coudray_de_La_Blanch%C3%A8re</t>
+          <t>Pierre_Moulin_du_Coudray_de_La_Blanchère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est notamment l’auteur de :
 L'Art du photographe, comprenant les procédés complets sur papier et sur glace, négatifs et positifs (Paris, 1859).
